--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\h11780\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\●ＩＣＴ推進室\100スマートシティ\700協議会\901オープンデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -522,12 +522,6 @@
     <t>10/20/2020</t>
   </si>
   <si>
-    <t>ヴイエムウェア株式会社</t>
-  </si>
-  <si>
-    <t>10/22/2020</t>
-  </si>
-  <si>
     <t>株式会社穴吹ハウジングサービス</t>
   </si>
   <si>
@@ -883,6 +877,20 @@
   </si>
   <si>
     <t>6/2/2023</t>
+  </si>
+  <si>
+    <t>西日本放送サービス株式会社</t>
+    <rPh sb="3" eb="5">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>8/25/2023</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1802,7 +1810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2947,7 +2957,7 @@
         <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -2955,10 +2965,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
         <v>199</v>
-      </c>
-      <c r="C105" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -2969,7 +2979,7 @@
         <v>200</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
@@ -2977,10 +2987,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" t="s">
         <v>202</v>
-      </c>
-      <c r="C107" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
@@ -3035,7 +3045,7 @@
         <v>211</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
@@ -3043,10 +3053,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
@@ -3054,10 +3064,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
         <v>214</v>
-      </c>
-      <c r="C114" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
@@ -3079,7 +3089,7 @@
         <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
@@ -3087,10 +3097,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
         <v>219</v>
-      </c>
-      <c r="C117" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
@@ -3211,7 +3221,7 @@
         <v>240</v>
       </c>
       <c r="C128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
@@ -3219,10 +3229,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" t="s">
         <v>242</v>
-      </c>
-      <c r="C129" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
@@ -3387,7 +3397,7 @@
         <v>271</v>
       </c>
       <c r="C144" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
@@ -3395,10 +3405,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>272</v>
+      </c>
+      <c r="C145" t="s">
         <v>273</v>
-      </c>
-      <c r="C145" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
@@ -3431,7 +3441,7 @@
         <v>278</v>
       </c>
       <c r="C148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
@@ -3439,10 +3449,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>279</v>
+      </c>
+      <c r="C149" t="s">
         <v>280</v>
-      </c>
-      <c r="C149" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
@@ -3453,7 +3463,7 @@
         <v>281</v>
       </c>
       <c r="C150" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -3461,10 +3471,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>282</v>
+      </c>
+      <c r="C151" t="s">
         <v>283</v>
-      </c>
-      <c r="C151" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">

--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\●ＩＣＴ推進室\100スマートシティ\700協議会\901オープンデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DA37EF-EF49-4214-ACEA-C6D0E9287F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0087" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="290">
   <si>
     <t>#property</t>
   </si>
@@ -892,11 +893,19 @@
     <t>8/25/2023</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>株式会社　日栄建設</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1/25/2024</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1807,16 +1816,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1849,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1915,7 +1927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1948,7 +1960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1981,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2003,7 +2015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2047,7 +2059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2058,7 +2070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2091,7 +2103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2113,7 +2125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2146,7 +2158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2179,7 +2191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2201,7 +2213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2223,7 +2235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2245,7 +2257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2289,7 +2301,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2355,7 +2367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2443,7 +2455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2487,7 +2499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2553,7 +2565,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2586,7 +2598,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2663,7 +2675,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2674,7 +2686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2751,7 +2763,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2762,7 +2774,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2795,7 +2807,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2839,7 +2851,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2850,7 +2862,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2883,7 +2895,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2894,7 +2906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2938,7 +2950,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3004,7 +3016,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3026,7 +3038,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3059,7 +3071,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3081,7 +3093,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3092,7 +3104,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3103,7 +3115,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3114,7 +3126,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3136,7 +3148,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3180,7 +3192,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3202,7 +3214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3268,7 +3280,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3290,7 +3302,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3312,7 +3324,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3334,7 +3346,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3356,7 +3368,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3378,7 +3390,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3411,7 +3423,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3444,7 +3456,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3497,6 +3509,17 @@
       </c>
       <c r="C153" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>288</v>
+      </c>
+      <c r="C154" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\●ＩＣＴ推進室\100スマートシティ\700協議会\901オープンデータ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DA37EF-EF49-4214-ACEA-C6D0E9287F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="0087" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="291">
   <si>
     <t>#property</t>
   </si>
@@ -901,11 +900,15 @@
     <t>1/25/2024</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>5/17/2023</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1816,11 +1819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3461,10 +3464,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3472,7 +3475,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C150" t="s">
         <v>280</v>
@@ -3525,5 +3528,6 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\●ＩＣＴ推進室\100スマートシティ\700協議会\901オープンデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA50E1-C59A-4785-886D-0D163263A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0087" sheetId="1" r:id="rId1"/>
@@ -273,9 +274,6 @@
     <t>2/19/2019</t>
   </si>
   <si>
-    <t>凸版印刷株式会社</t>
-  </si>
-  <si>
     <t>2/20/2019</t>
   </si>
   <si>
@@ -904,11 +902,15 @@
     <t>5/17/2023</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>TOPPAN株式会社</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1819,11 +1821,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2331,10 +2333,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2342,10 +2344,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
         <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2353,10 +2355,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
         <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2364,10 +2366,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2375,10 +2377,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
         <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2386,10 +2388,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
         <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2397,10 +2399,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
         <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2408,10 +2410,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
         <v>98</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2419,10 +2421,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
         <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2430,10 +2432,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
         <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2441,10 +2443,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
         <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2452,10 +2454,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
         <v>106</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2463,10 +2465,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
         <v>108</v>
-      </c>
-      <c r="C58" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2474,10 +2476,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
         <v>110</v>
-      </c>
-      <c r="C59" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2485,10 +2487,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
         <v>112</v>
-      </c>
-      <c r="C60" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2496,10 +2498,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
         <v>114</v>
-      </c>
-      <c r="C61" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2507,10 +2509,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
         <v>116</v>
-      </c>
-      <c r="C62" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2518,10 +2520,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
         <v>118</v>
-      </c>
-      <c r="C63" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2529,10 +2531,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
         <v>120</v>
-      </c>
-      <c r="C64" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2540,10 +2542,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
         <v>122</v>
-      </c>
-      <c r="C65" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2551,10 +2553,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
         <v>124</v>
-      </c>
-      <c r="C66" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2562,10 +2564,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
         <v>126</v>
-      </c>
-      <c r="C67" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2573,10 +2575,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
         <v>128</v>
-      </c>
-      <c r="C68" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2584,10 +2586,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2595,10 +2597,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
         <v>131</v>
-      </c>
-      <c r="C70" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2606,10 +2608,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2617,10 +2619,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
         <v>134</v>
-      </c>
-      <c r="C72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2628,10 +2630,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
         <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2639,10 +2641,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
         <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2650,10 +2652,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
         <v>140</v>
-      </c>
-      <c r="C75" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2661,10 +2663,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
         <v>142</v>
-      </c>
-      <c r="C76" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2672,10 +2674,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
         <v>144</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2683,10 +2685,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
         <v>146</v>
-      </c>
-      <c r="C78" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2694,10 +2696,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
         <v>148</v>
-      </c>
-      <c r="C79" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2705,10 +2707,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" t="s">
         <v>150</v>
-      </c>
-      <c r="C80" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2716,10 +2718,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" t="s">
         <v>152</v>
-      </c>
-      <c r="C81" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2727,10 +2729,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
         <v>154</v>
-      </c>
-      <c r="C82" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2738,10 +2740,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
         <v>156</v>
-      </c>
-      <c r="C83" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2749,10 +2751,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2760,10 +2762,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" t="s">
         <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2771,10 +2773,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
         <v>161</v>
-      </c>
-      <c r="C86" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2782,10 +2784,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" t="s">
         <v>163</v>
-      </c>
-      <c r="C87" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2793,10 +2795,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" t="s">
         <v>165</v>
-      </c>
-      <c r="C88" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2804,10 +2806,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" t="s">
         <v>167</v>
-      </c>
-      <c r="C89" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2815,10 +2817,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
         <v>169</v>
-      </c>
-      <c r="C90" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2826,10 +2828,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" t="s">
         <v>171</v>
-      </c>
-      <c r="C91" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2837,10 +2839,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" t="s">
         <v>173</v>
-      </c>
-      <c r="C92" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2848,10 +2850,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" t="s">
         <v>175</v>
-      </c>
-      <c r="C93" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2859,10 +2861,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" t="s">
         <v>177</v>
-      </c>
-      <c r="C94" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2870,10 +2872,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="s">
         <v>179</v>
-      </c>
-      <c r="C95" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2881,10 +2883,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
         <v>181</v>
-      </c>
-      <c r="C96" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2892,10 +2894,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" t="s">
         <v>183</v>
-      </c>
-      <c r="C97" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2903,10 +2905,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" t="s">
         <v>185</v>
-      </c>
-      <c r="C98" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2914,10 +2916,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" t="s">
         <v>187</v>
-      </c>
-      <c r="C99" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2925,10 +2927,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
         <v>189</v>
-      </c>
-      <c r="C100" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2936,10 +2938,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" t="s">
         <v>191</v>
-      </c>
-      <c r="C101" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2947,10 +2949,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" t="s">
         <v>193</v>
-      </c>
-      <c r="C102" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2958,10 +2960,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" t="s">
         <v>195</v>
-      </c>
-      <c r="C103" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2969,10 +2971,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2980,10 +2982,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" t="s">
         <v>198</v>
-      </c>
-      <c r="C105" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2991,10 +2993,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3002,10 +3004,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s">
         <v>201</v>
-      </c>
-      <c r="C107" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3013,10 +3015,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
         <v>203</v>
-      </c>
-      <c r="C108" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3024,10 +3026,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
         <v>205</v>
-      </c>
-      <c r="C109" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3035,10 +3037,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" t="s">
         <v>207</v>
-      </c>
-      <c r="C110" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3046,10 +3048,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" t="s">
         <v>209</v>
-      </c>
-      <c r="C111" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3057,10 +3059,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3068,10 +3070,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3079,10 +3081,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" t="s">
         <v>213</v>
-      </c>
-      <c r="C114" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3090,10 +3092,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" t="s">
         <v>215</v>
-      </c>
-      <c r="C115" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3101,10 +3103,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3112,10 +3114,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" t="s">
         <v>218</v>
-      </c>
-      <c r="C117" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3123,10 +3125,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" t="s">
         <v>220</v>
-      </c>
-      <c r="C118" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3134,10 +3136,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" t="s">
         <v>222</v>
-      </c>
-      <c r="C119" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,10 +3147,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" t="s">
         <v>224</v>
-      </c>
-      <c r="C120" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3156,10 +3158,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" t="s">
         <v>226</v>
-      </c>
-      <c r="C121" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3167,10 +3169,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" t="s">
         <v>228</v>
-      </c>
-      <c r="C122" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3178,10 +3180,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" t="s">
         <v>230</v>
-      </c>
-      <c r="C123" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3189,10 +3191,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" t="s">
         <v>232</v>
-      </c>
-      <c r="C124" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3200,10 +3202,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
         <v>234</v>
-      </c>
-      <c r="C125" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3211,10 +3213,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" t="s">
         <v>236</v>
-      </c>
-      <c r="C126" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3222,10 +3224,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" t="s">
         <v>238</v>
-      </c>
-      <c r="C127" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3233,10 +3235,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C128" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3244,10 +3246,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" t="s">
         <v>241</v>
-      </c>
-      <c r="C129" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3255,10 +3257,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
         <v>243</v>
-      </c>
-      <c r="C130" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3266,10 +3268,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
         <v>245</v>
-      </c>
-      <c r="C131" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3277,10 +3279,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" t="s">
         <v>247</v>
-      </c>
-      <c r="C132" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3288,10 +3290,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" t="s">
         <v>249</v>
-      </c>
-      <c r="C133" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3299,10 +3301,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" t="s">
         <v>251</v>
-      </c>
-      <c r="C134" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3310,10 +3312,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135" t="s">
         <v>253</v>
-      </c>
-      <c r="C135" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3321,10 +3323,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" t="s">
         <v>255</v>
-      </c>
-      <c r="C136" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3332,10 +3334,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" t="s">
         <v>257</v>
-      </c>
-      <c r="C137" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3343,10 +3345,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>258</v>
+      </c>
+      <c r="C138" t="s">
         <v>259</v>
-      </c>
-      <c r="C138" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3354,10 +3356,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" t="s">
         <v>261</v>
-      </c>
-      <c r="C139" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3365,10 +3367,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" t="s">
         <v>263</v>
-      </c>
-      <c r="C140" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3376,10 +3378,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>264</v>
+      </c>
+      <c r="C141" t="s">
         <v>265</v>
-      </c>
-      <c r="C141" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3387,10 +3389,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" t="s">
         <v>267</v>
-      </c>
-      <c r="C142" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3398,10 +3400,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" t="s">
         <v>269</v>
-      </c>
-      <c r="C143" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3409,10 +3411,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C144" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3420,10 +3422,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" t="s">
         <v>272</v>
-      </c>
-      <c r="C145" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3431,10 +3433,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>273</v>
+      </c>
+      <c r="C146" t="s">
         <v>274</v>
-      </c>
-      <c r="C146" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3442,10 +3444,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" t="s">
         <v>276</v>
-      </c>
-      <c r="C147" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3453,10 +3455,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C148" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3464,10 +3466,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C149" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3475,10 +3477,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>278</v>
+      </c>
+      <c r="C150" t="s">
         <v>279</v>
-      </c>
-      <c r="C150" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3486,10 +3488,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" t="s">
         <v>282</v>
-      </c>
-      <c r="C151" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3497,10 +3499,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" t="s">
         <v>284</v>
-      </c>
-      <c r="C152" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3508,10 +3510,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>285</v>
+      </c>
+      <c r="C153" t="s">
         <v>286</v>
-      </c>
-      <c r="C153" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3519,15 +3521,14 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>287</v>
+      </c>
+      <c r="C154" t="s">
         <v>288</v>
-      </c>
-      <c r="C154" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\●ＩＣＴ推進室\100スマートシティ\700協議会\901オープンデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA50E1-C59A-4785-886D-0D163263A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628694F-4597-4FBC-A474-22B34435C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="295">
   <si>
     <t>#property</t>
   </si>
@@ -121,9 +121,6 @@
     <t>12/22/2017</t>
   </si>
   <si>
-    <t>株式会社四国日立システムズ</t>
-  </si>
-  <si>
     <t>1/31/2018</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
   </si>
   <si>
     <t>9/23/2020</t>
-  </si>
-  <si>
-    <t>株式会社フソウメンテック</t>
   </si>
   <si>
     <t>三菱電機株式会社　四国支社</t>
@@ -904,6 +898,45 @@
   </si>
   <si>
     <t>TOPPAN株式会社</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>株式会社日立システムズ四国支社</t>
+    <rPh sb="11" eb="13">
+      <t>シコク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>olive株式会社</t>
+    <rPh sb="0" eb="9">
+      <t>オリーブカブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4/23/2024</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ネポン株式会社</t>
+    <rPh sb="3" eb="7">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>株式会社ゼムス</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4/30/2024</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1822,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2047,10 +2080,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2058,10 +2091,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2069,10 +2102,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2080,10 +2113,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2091,10 +2124,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2102,10 +2135,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2113,10 +2146,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2124,10 +2157,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2135,10 +2168,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2146,10 +2179,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2157,10 +2190,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2168,10 +2201,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2179,10 +2212,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2190,10 +2223,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2201,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2212,10 +2245,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2223,10 +2256,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2234,10 +2267,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2245,10 +2278,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2256,10 +2289,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
         <v>70</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2267,10 +2300,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
         <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2278,10 +2311,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
         <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2289,10 +2322,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
         <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2300,10 +2333,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
         <v>78</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2311,10 +2344,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2322,10 +2355,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2333,10 +2366,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2344,10 +2377,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2355,10 +2388,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
         <v>87</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2366,10 +2399,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
         <v>89</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2377,10 +2410,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2388,10 +2421,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2399,10 +2432,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2410,10 +2443,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
         <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2421,10 +2454,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
         <v>99</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2432,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
         <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2443,10 +2476,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
         <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2454,10 +2487,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
         <v>105</v>
-      </c>
-      <c r="C57" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2465,10 +2498,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
         <v>107</v>
-      </c>
-      <c r="C58" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2476,10 +2509,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
         <v>109</v>
-      </c>
-      <c r="C59" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2487,10 +2520,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
         <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2498,10 +2531,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
         <v>113</v>
-      </c>
-      <c r="C61" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2509,10 +2542,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
         <v>115</v>
-      </c>
-      <c r="C62" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2520,10 +2553,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
         <v>117</v>
-      </c>
-      <c r="C63" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2531,10 +2564,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
         <v>119</v>
-      </c>
-      <c r="C64" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2542,10 +2575,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
         <v>121</v>
-      </c>
-      <c r="C65" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2553,10 +2586,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
         <v>123</v>
-      </c>
-      <c r="C66" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2564,10 +2597,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
         <v>125</v>
-      </c>
-      <c r="C67" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2575,10 +2608,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
         <v>127</v>
-      </c>
-      <c r="C68" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2586,10 +2619,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2597,10 +2630,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
         <v>130</v>
-      </c>
-      <c r="C70" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2608,10 +2641,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2619,10 +2652,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="s">
         <v>133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2630,10 +2663,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" t="s">
         <v>135</v>
-      </c>
-      <c r="C73" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2641,10 +2674,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
         <v>137</v>
-      </c>
-      <c r="C74" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2652,10 +2685,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" t="s">
         <v>139</v>
-      </c>
-      <c r="C75" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2663,10 +2696,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" t="s">
         <v>141</v>
-      </c>
-      <c r="C76" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2674,10 +2707,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" t="s">
         <v>143</v>
-      </c>
-      <c r="C77" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2685,10 +2718,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
         <v>145</v>
-      </c>
-      <c r="C78" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2696,10 +2729,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
         <v>147</v>
-      </c>
-      <c r="C79" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2707,10 +2740,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" t="s">
         <v>149</v>
-      </c>
-      <c r="C80" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2718,10 +2751,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="s">
         <v>151</v>
-      </c>
-      <c r="C81" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2729,10 +2762,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s">
         <v>153</v>
-      </c>
-      <c r="C82" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2740,10 +2773,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" t="s">
         <v>155</v>
-      </c>
-      <c r="C83" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2751,10 +2784,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
         <v>157</v>
-      </c>
-      <c r="C84" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2963,7 +2996,7 @@
         <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2971,10 +3004,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" t="s">
         <v>196</v>
-      </c>
-      <c r="C104" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2985,7 +3018,7 @@
         <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2993,10 +3026,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
         <v>199</v>
-      </c>
-      <c r="C106" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3051,7 +3084,7 @@
         <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3059,10 +3092,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3070,10 +3103,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" t="s">
         <v>211</v>
-      </c>
-      <c r="C113" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3095,7 +3128,7 @@
         <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3103,10 +3136,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" t="s">
         <v>216</v>
-      </c>
-      <c r="C116" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3227,7 +3260,7 @@
         <v>237</v>
       </c>
       <c r="C127" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3235,10 +3268,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
         <v>239</v>
-      </c>
-      <c r="C128" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3403,7 +3436,7 @@
         <v>268</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3411,10 +3444,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" t="s">
         <v>270</v>
-      </c>
-      <c r="C144" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3447,7 +3480,7 @@
         <v>275</v>
       </c>
       <c r="C147" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3455,10 +3488,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C148" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3466,10 +3499,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C149" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3477,10 +3510,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C150" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3521,10 +3554,32 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C154" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>292</v>
+      </c>
+      <c r="C155" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\●ＩＣＴ推進室\100スマートシティ\700協議会\901オープンデータ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\h11780\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628694F-4597-4FBC-A474-22B34435C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="0087" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="297">
   <si>
     <t>#property</t>
   </si>
@@ -939,11 +938,22 @@
     <t>4/30/2024</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>株式会社スウェルデザイン</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4/30/2024</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1854,11 +1864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3582,6 +3592,17 @@
         <v>294</v>
       </c>
     </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -14,12 +14,25 @@
   <sheets>
     <sheet name="0087" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="299">
   <si>
     <t>#property</t>
   </si>
@@ -625,9 +638,6 @@
   </si>
   <si>
     <t>3/22/2021</t>
-  </si>
-  <si>
-    <t>日本メディカルビジネス株式会社</t>
   </si>
   <si>
     <t>3/19/2021</t>
@@ -947,6 +957,18 @@
   </si>
   <si>
     <t>4/30/2024</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 特定非営利活動法人わがこと</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>6/13/2024</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>株式会社エム・エイチ・アイ</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1865,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2090,7 +2112,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -2376,7 +2398,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
         <v>83</v>
@@ -3058,10 +3080,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" t="s">
         <v>202</v>
-      </c>
-      <c r="C108" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3069,10 +3091,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" t="s">
         <v>204</v>
-      </c>
-      <c r="C109" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3080,10 +3102,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" t="s">
         <v>206</v>
-      </c>
-      <c r="C110" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3091,10 +3113,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3102,10 +3124,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3113,10 +3135,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" t="s">
         <v>210</v>
-      </c>
-      <c r="C113" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3124,10 +3146,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" t="s">
         <v>212</v>
-      </c>
-      <c r="C114" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3135,10 +3157,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3146,10 +3168,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" t="s">
         <v>215</v>
-      </c>
-      <c r="C116" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3157,10 +3179,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" t="s">
         <v>217</v>
-      </c>
-      <c r="C117" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3168,10 +3190,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" t="s">
         <v>219</v>
-      </c>
-      <c r="C118" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3179,10 +3201,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" t="s">
         <v>221</v>
-      </c>
-      <c r="C119" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3190,10 +3212,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" t="s">
         <v>223</v>
-      </c>
-      <c r="C120" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3201,10 +3223,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>224</v>
+      </c>
+      <c r="C121" t="s">
         <v>225</v>
-      </c>
-      <c r="C121" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3212,10 +3234,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122" t="s">
         <v>227</v>
-      </c>
-      <c r="C122" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3223,10 +3245,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" t="s">
         <v>229</v>
-      </c>
-      <c r="C123" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3234,10 +3256,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" t="s">
         <v>231</v>
-      </c>
-      <c r="C124" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3245,10 +3267,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" t="s">
         <v>233</v>
-      </c>
-      <c r="C125" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3256,10 +3278,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" t="s">
         <v>235</v>
-      </c>
-      <c r="C126" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3267,10 +3289,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3278,10 +3300,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>237</v>
+      </c>
+      <c r="C128" t="s">
         <v>238</v>
-      </c>
-      <c r="C128" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3289,10 +3311,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129" t="s">
         <v>240</v>
-      </c>
-      <c r="C129" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3300,10 +3322,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" t="s">
         <v>242</v>
-      </c>
-      <c r="C130" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3311,10 +3333,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" t="s">
         <v>244</v>
-      </c>
-      <c r="C131" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3322,10 +3344,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>245</v>
+      </c>
+      <c r="C132" t="s">
         <v>246</v>
-      </c>
-      <c r="C132" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3333,10 +3355,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" t="s">
         <v>248</v>
-      </c>
-      <c r="C133" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3344,10 +3366,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" t="s">
         <v>250</v>
-      </c>
-      <c r="C134" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3355,10 +3377,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" t="s">
         <v>252</v>
-      </c>
-      <c r="C135" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3366,10 +3388,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" t="s">
         <v>254</v>
-      </c>
-      <c r="C136" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3377,10 +3399,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>255</v>
+      </c>
+      <c r="C137" t="s">
         <v>256</v>
-      </c>
-      <c r="C137" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3388,10 +3410,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" t="s">
         <v>258</v>
-      </c>
-      <c r="C138" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3399,10 +3421,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>259</v>
+      </c>
+      <c r="C139" t="s">
         <v>260</v>
-      </c>
-      <c r="C139" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3410,10 +3432,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>261</v>
+      </c>
+      <c r="C140" t="s">
         <v>262</v>
-      </c>
-      <c r="C140" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3421,10 +3443,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>263</v>
+      </c>
+      <c r="C141" t="s">
         <v>264</v>
-      </c>
-      <c r="C141" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3432,10 +3454,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>265</v>
+      </c>
+      <c r="C142" t="s">
         <v>266</v>
-      </c>
-      <c r="C142" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3443,10 +3465,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3454,10 +3476,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>268</v>
+      </c>
+      <c r="C144" t="s">
         <v>269</v>
-      </c>
-      <c r="C144" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3465,10 +3487,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" t="s">
         <v>271</v>
-      </c>
-      <c r="C145" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3476,10 +3498,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>272</v>
+      </c>
+      <c r="C146" t="s">
         <v>273</v>
-      </c>
-      <c r="C146" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3487,10 +3509,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C147" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3498,10 +3520,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C148" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3509,10 +3531,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>275</v>
+      </c>
+      <c r="C149" t="s">
         <v>276</v>
-      </c>
-      <c r="C149" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3520,10 +3542,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>278</v>
+      </c>
+      <c r="C150" t="s">
         <v>279</v>
-      </c>
-      <c r="C150" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3531,10 +3553,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>280</v>
+      </c>
+      <c r="C151" t="s">
         <v>281</v>
-      </c>
-      <c r="C151" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3542,10 +3564,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" t="s">
         <v>283</v>
-      </c>
-      <c r="C152" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3553,10 +3575,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" t="s">
         <v>285</v>
-      </c>
-      <c r="C153" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3564,10 +3586,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" t="s">
         <v>290</v>
-      </c>
-      <c r="C154" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3575,10 +3597,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C155" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3586,10 +3608,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" t="s">
         <v>293</v>
-      </c>
-      <c r="C156" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3597,10 +3619,21 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>294</v>
+      </c>
+      <c r="C157" t="s">
         <v>295</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
         <v>296</v>
+      </c>
+      <c r="C158" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\h11780\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="301">
   <si>
     <t>#property</t>
   </si>
@@ -969,6 +964,14 @@
   </si>
   <si>
     <t>株式会社エム・エイチ・アイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ロボフィス株式会社</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>7/14/2025</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1887,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3636,8 +3639,20 @@
         <v>297</v>
       </c>
     </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>299</v>
+      </c>
+      <c r="C159" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/list_of_member_companies/0087.xlsx
+++ b/data/list_of_member_companies/0087.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="299">
   <si>
     <t>#property</t>
   </si>
@@ -351,12 +351,6 @@
   </si>
   <si>
     <t>10/25/2019</t>
-  </si>
-  <si>
-    <t>インテル株式会社</t>
-  </si>
-  <si>
-    <t>11/5/2019</t>
   </si>
   <si>
     <t>株式会社トラストバンク</t>
@@ -1890,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2115,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -2401,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s">
         <v>83</v>
@@ -2646,7 +2640,7 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2654,10 +2648,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2668,7 +2662,7 @@
         <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2676,10 +2670,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
         <v>131</v>
-      </c>
-      <c r="C71" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3020,7 +3014,7 @@
         <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3028,10 +3022,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" t="s">
         <v>194</v>
-      </c>
-      <c r="C103" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3042,7 +3036,7 @@
         <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3050,10 +3044,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
         <v>197</v>
-      </c>
-      <c r="C105" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3072,10 +3066,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" t="s">
         <v>200</v>
-      </c>
-      <c r="C107" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3083,7 +3077,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="C108" t="s">
         <v>202</v>
@@ -3108,7 +3102,7 @@
         <v>205</v>
       </c>
       <c r="C110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3116,10 +3110,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3127,10 +3121,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" t="s">
         <v>208</v>
-      </c>
-      <c r="C112" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3152,7 +3146,7 @@
         <v>211</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3160,10 +3154,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>212</v>
+      </c>
+      <c r="C115" t="s">
         <v>213</v>
-      </c>
-      <c r="C115" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3284,7 +3278,7 @@
         <v>234</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3292,10 +3286,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" t="s">
         <v>236</v>
-      </c>
-      <c r="C127" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3460,7 +3454,7 @@
         <v>265</v>
       </c>
       <c r="C142" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3468,10 +3462,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>266</v>
+      </c>
+      <c r="C143" t="s">
         <v>267</v>
-      </c>
-      <c r="C143" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3504,7 +3498,7 @@
         <v>272</v>
       </c>
       <c r="C146" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3512,10 +3506,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3523,10 +3517,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3534,10 +3528,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3578,10 +3572,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C153" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3592,7 +3586,7 @@
         <v>289</v>
       </c>
       <c r="C154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3600,10 +3594,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>290</v>
+      </c>
+      <c r="C155" t="s">
         <v>291</v>
-      </c>
-      <c r="C155" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3633,21 +3627,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C158" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>299</v>
-      </c>
-      <c r="C159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
